--- a/CCJ.xlsx
+++ b/CCJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0F8BB-3902-4757-91D3-2D96502016F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90671156-F471-477D-AB7A-FEA0FB501C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{89780260-E2B1-478F-A971-6D0020786901}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{89780260-E2B1-478F-A971-6D0020786901}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +204,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -227,12 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,22 +265,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -608,85 +620,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1F4D3-8DF9-4B4D-BC49-F1DC3C1243F6}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="3">
         <v>46.61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>435.18057199999998</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <f>I2*I3</f>
         <v>20283.76646092</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>361.61700000000002</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>1402.953</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <f>I4-I5+I6</f>
         <v>21325.102460920003</v>
       </c>
@@ -703,65 +716,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7FC387-F912-4DFD-A12F-7E4A3CCE72F8}">
   <dimension ref="A1:R662"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3">
@@ -793,8 +807,8 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3">
@@ -826,8 +840,8 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
@@ -859,8 +873,8 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
@@ -892,8 +906,8 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">
@@ -925,8 +939,8 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
@@ -958,7 +972,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -976,7 +990,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -994,22 +1008,22 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>481.98700000000002</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>598.45799999999997</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1019,8 +1033,8 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3"/>
@@ -1044,8 +1058,8 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3"/>
@@ -1071,8 +1085,8 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
@@ -1096,8 +1110,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3"/>
@@ -1121,8 +1135,8 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3"/>
@@ -1146,8 +1160,8 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3"/>
@@ -1171,8 +1185,8 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3"/>
@@ -1198,8 +1212,8 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3"/>
@@ -1225,8 +1239,8 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3"/>
@@ -1250,8 +1264,8 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="3"/>
@@ -1275,8 +1289,8 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3"/>
@@ -1300,8 +1314,8 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="3"/>
@@ -1325,8 +1339,8 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="3"/>
@@ -1350,8 +1364,8 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="3"/>
@@ -1377,8 +1391,8 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3"/>
@@ -1402,8 +1416,8 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="3"/>
@@ -1429,8 +1443,8 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="3"/>
@@ -1454,8 +1468,8 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3"/>
@@ -1481,7 +1495,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1499,33 +1513,33 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
         <v>0.03</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <v>0.08</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3"/>
@@ -1551,7 +1565,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1569,8 +1583,8 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="3"/>
@@ -1578,15 +1592,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <f>H12/D12-1</f>
         <v>0.24164759630446442</v>
       </c>
-      <c r="I35" s="9" t="e">
+      <c r="I35" s="10" t="e">
         <f t="shared" ref="I35:J35" si="0">I12/E12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="9" t="e">
+      <c r="J35" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1599,39 +1613,39 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="9" t="e">
+      <c r="C36" s="10" t="e">
         <f t="shared" ref="C36:G36" si="1">C14/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <f t="shared" si="1"/>
         <v>0.31499812235599722</v>
       </c>
-      <c r="E36" s="9" t="e">
+      <c r="E36" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="9" t="e">
+      <c r="F36" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="9" t="e">
+      <c r="G36" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="10">
         <f>H14/H12</f>
         <v>0.39631519672224286</v>
       </c>
-      <c r="I36" s="9" t="e">
+      <c r="I36" s="10" t="e">
         <f t="shared" ref="I36:J36" si="2">I14/I12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="9" t="e">
+      <c r="J36" s="10" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1644,39 +1658,39 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="9" t="e">
+      <c r="C37" s="10" t="e">
         <f t="shared" ref="C37:G37" si="3">C20/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="10">
         <f t="shared" si="3"/>
         <v>7.3701987812949385E-2</v>
       </c>
-      <c r="E37" s="9" t="e">
+      <c r="E37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="9" t="e">
+      <c r="F37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="9" t="e">
+      <c r="G37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="10">
         <f>H20/H12</f>
         <v>0.17043635476507962</v>
       </c>
-      <c r="I37" s="9" t="e">
+      <c r="I37" s="10" t="e">
         <f t="shared" ref="I37:J37" si="4">I20/I12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="9" t="e">
+      <c r="J37" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1689,39 +1703,39 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="9" t="e">
+      <c r="C38" s="10" t="e">
         <f t="shared" ref="C38:G38" si="5">C27/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <f t="shared" si="5"/>
         <v>0.62622991254550953</v>
       </c>
-      <c r="E38" s="9" t="e">
+      <c r="E38" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="9" t="e">
+      <c r="F38" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="9" t="e">
+      <c r="G38" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="10">
         <f>H27/H26</f>
         <v>0.3335801006810778</v>
       </c>
-      <c r="I38" s="9" t="e">
+      <c r="I38" s="10" t="e">
         <f t="shared" ref="I38:J38" si="6">I27/I26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="9" t="e">
+      <c r="J38" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -1734,7 +1748,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1752,7 +1766,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1770,7 +1784,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1788,7 +1802,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1806,7 +1820,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1824,7 +1838,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1842,7 +1856,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1860,7 +1874,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1878,7 +1892,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1896,7 +1910,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1914,7 +1928,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1932,7 +1946,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1950,7 +1964,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1968,7 +1982,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1986,7 +2000,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2004,7 +2018,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2022,7 +2036,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2040,7 +2054,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2058,7 +2072,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2076,7 +2090,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2094,7 +2108,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2112,7 +2126,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2130,7 +2144,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2148,7 +2162,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2166,7 +2180,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2184,7 +2198,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2202,7 +2216,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2220,7 +2234,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2238,7 +2252,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2256,7 +2270,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2274,7 +2288,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2292,7 +2306,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2310,7 +2324,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2328,7 +2342,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2346,7 +2360,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2364,7 +2378,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2382,7 +2396,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2400,7 +2414,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2418,7 +2432,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2436,7 +2450,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2454,7 +2468,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2472,7 +2486,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2490,7 +2504,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2508,7 +2522,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2526,7 +2540,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2544,7 +2558,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2562,7 +2576,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2580,7 +2594,7 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2598,7 +2612,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2616,7 +2630,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2634,7 +2648,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -2652,7 +2666,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2670,7 +2684,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2688,7 +2702,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2706,7 +2720,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2724,7 +2738,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2742,7 +2756,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2760,7 +2774,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2778,7 +2792,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2796,7 +2810,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2814,7 +2828,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2832,7 +2846,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -2850,7 +2864,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -2868,7 +2882,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -2886,7 +2900,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -2904,7 +2918,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2922,7 +2936,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2940,7 +2954,7 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2958,7 +2972,7 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2976,7 +2990,7 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2994,7 +3008,7 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3012,7 +3026,7 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
     </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3030,7 +3044,7 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3048,7 +3062,7 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3066,7 +3080,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3084,7 +3098,7 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3102,7 +3116,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3120,7 +3134,7 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3138,7 +3152,7 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -3156,7 +3170,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3174,7 +3188,7 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3192,7 +3206,7 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
     </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3210,7 +3224,7 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
     </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3228,7 +3242,7 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -3246,7 +3260,7 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -3264,7 +3278,7 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -3282,7 +3296,7 @@
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
     </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -3300,7 +3314,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3318,7 +3332,7 @@
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
     </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3336,7 +3350,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3354,7 +3368,7 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -3372,7 +3386,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -3390,7 +3404,7 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -3408,7 +3422,7 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -3426,7 +3440,7 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -3444,7 +3458,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -3462,7 +3476,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -3480,7 +3494,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -3498,7 +3512,7 @@
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
     </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -3516,7 +3530,7 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
     </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -3534,7 +3548,7 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3552,7 +3566,7 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -3570,7 +3584,7 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -3588,7 +3602,7 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
     </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -3606,7 +3620,7 @@
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
     </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -3624,7 +3638,7 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
     </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -3642,7 +3656,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
     </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -3660,7 +3674,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
     </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -3678,7 +3692,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
     </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -3696,7 +3710,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
     </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -3714,7 +3728,7 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
     </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -3732,7 +3746,7 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
     </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -3750,7 +3764,7 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
     </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -3768,7 +3782,7 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
     </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -3786,7 +3800,7 @@
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
     </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -3804,7 +3818,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -3822,7 +3836,7 @@
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
     </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -3840,7 +3854,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -3858,7 +3872,7 @@
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
     </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -3876,7 +3890,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
     </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -3894,7 +3908,7 @@
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
     </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -3912,7 +3926,7 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
     </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -3930,7 +3944,7 @@
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
     </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -3948,7 +3962,7 @@
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
     </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -3966,7 +3980,7 @@
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
     </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -3984,7 +3998,7 @@
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
     </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4002,7 +4016,7 @@
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
     </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4020,7 +4034,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
     </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4038,7 +4052,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4056,7 +4070,7 @@
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
     </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4074,7 +4088,7 @@
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
     </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4092,7 +4106,7 @@
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
     </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -4110,7 +4124,7 @@
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
     </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4128,7 +4142,7 @@
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
     </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4146,7 +4160,7 @@
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
     </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4164,7 +4178,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
     </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -4182,7 +4196,7 @@
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
     </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -4200,7 +4214,7 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -4218,7 +4232,7 @@
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -4236,7 +4250,7 @@
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -4254,7 +4268,7 @@
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -4272,7 +4286,7 @@
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -4290,7 +4304,7 @@
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -4308,7 +4322,7 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -4326,7 +4340,7 @@
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
     </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -4344,7 +4358,7 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
     </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -4362,7 +4376,7 @@
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
     </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -4380,7 +4394,7 @@
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
     </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -4398,7 +4412,7 @@
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
     </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -4416,7 +4430,7 @@
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
     </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -4434,7 +4448,7 @@
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
     </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -4452,7 +4466,7 @@
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
     </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -4470,7 +4484,7 @@
       <c r="Q190" s="3"/>
       <c r="R190" s="3"/>
     </row>
-    <row r="191" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -4488,7 +4502,7 @@
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
     </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -4506,7 +4520,7 @@
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
     </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -4524,7 +4538,7 @@
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
     </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -4542,7 +4556,7 @@
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
     </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -4560,7 +4574,7 @@
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
     </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -4578,7 +4592,7 @@
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
     </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -4596,7 +4610,7 @@
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
     </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -4614,7 +4628,7 @@
       <c r="Q198" s="3"/>
       <c r="R198" s="3"/>
     </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -4632,7 +4646,7 @@
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
     </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -4650,7 +4664,7 @@
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
     </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -4668,7 +4682,7 @@
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
     </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -4686,7 +4700,7 @@
       <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
     </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -4704,7 +4718,7 @@
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
     </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -4722,7 +4736,7 @@
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
     </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -4740,7 +4754,7 @@
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
     </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -4758,7 +4772,7 @@
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
     </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -4776,7 +4790,7 @@
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
     </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -4794,7 +4808,7 @@
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
     </row>
-    <row r="209" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -4812,7 +4826,7 @@
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
     </row>
-    <row r="210" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -4830,7 +4844,7 @@
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
     </row>
-    <row r="211" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -4848,7 +4862,7 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
     </row>
-    <row r="212" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -4866,7 +4880,7 @@
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
     </row>
-    <row r="213" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -4884,7 +4898,7 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
     </row>
-    <row r="214" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -4902,7 +4916,7 @@
       <c r="Q214" s="3"/>
       <c r="R214" s="3"/>
     </row>
-    <row r="215" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -4920,7 +4934,7 @@
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
     </row>
-    <row r="216" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -4938,7 +4952,7 @@
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
     </row>
-    <row r="217" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -4956,7 +4970,7 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
     </row>
-    <row r="218" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -4974,7 +4988,7 @@
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
     </row>
-    <row r="219" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -4992,7 +5006,7 @@
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
     </row>
-    <row r="220" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -5010,7 +5024,7 @@
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
     </row>
-    <row r="221" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -5028,7 +5042,7 @@
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
     </row>
-    <row r="222" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -5046,7 +5060,7 @@
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
     </row>
-    <row r="223" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -5064,7 +5078,7 @@
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
     </row>
-    <row r="224" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -5082,7 +5096,7 @@
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
     </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -5100,7 +5114,7 @@
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
     </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -5118,7 +5132,7 @@
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
     </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -5136,7 +5150,7 @@
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
     </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -5154,7 +5168,7 @@
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
     </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -5172,7 +5186,7 @@
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
     </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -5190,7 +5204,7 @@
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
     </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5208,7 +5222,7 @@
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
     </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5226,7 +5240,7 @@
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
     </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -5244,7 +5258,7 @@
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
     </row>
-    <row r="234" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -5262,7 +5276,7 @@
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
     </row>
-    <row r="235" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -5280,7 +5294,7 @@
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
     </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -5298,7 +5312,7 @@
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
     </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -5316,7 +5330,7 @@
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
     </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -5334,7 +5348,7 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5352,7 +5366,7 @@
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
     </row>
-    <row r="240" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -5370,7 +5384,7 @@
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
     </row>
-    <row r="241" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -5388,7 +5402,7 @@
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
     </row>
-    <row r="242" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -5406,7 +5420,7 @@
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
     </row>
-    <row r="243" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -5424,7 +5438,7 @@
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
     </row>
-    <row r="244" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -5442,7 +5456,7 @@
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
     </row>
-    <row r="245" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5460,7 +5474,7 @@
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
     </row>
-    <row r="246" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -5478,7 +5492,7 @@
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -5496,7 +5510,7 @@
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
     </row>
-    <row r="248" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5514,7 +5528,7 @@
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
     </row>
-    <row r="249" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -5532,7 +5546,7 @@
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
     </row>
-    <row r="250" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -5550,7 +5564,7 @@
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
     </row>
-    <row r="251" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -5568,7 +5582,7 @@
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
     </row>
-    <row r="252" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -5586,7 +5600,7 @@
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
     </row>
-    <row r="253" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -5604,7 +5618,7 @@
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
     </row>
-    <row r="254" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5622,7 +5636,7 @@
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -5640,7 +5654,7 @@
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
     </row>
-    <row r="256" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -5658,7 +5672,7 @@
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
     </row>
-    <row r="257" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -5676,7 +5690,7 @@
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
     </row>
-    <row r="258" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5694,7 +5708,7 @@
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
     </row>
-    <row r="259" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -5712,7 +5726,7 @@
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
     </row>
-    <row r="260" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -5730,7 +5744,7 @@
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
     </row>
-    <row r="261" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -5748,7 +5762,7 @@
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
     </row>
-    <row r="262" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -5766,7 +5780,7 @@
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -5784,7 +5798,7 @@
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
     </row>
-    <row r="264" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -5802,7 +5816,7 @@
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
     </row>
-    <row r="265" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -5820,7 +5834,7 @@
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
     </row>
-    <row r="266" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -5838,7 +5852,7 @@
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
     </row>
-    <row r="267" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -5856,7 +5870,7 @@
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
     </row>
-    <row r="268" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -5874,7 +5888,7 @@
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
     </row>
-    <row r="269" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -5892,7 +5906,7 @@
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
     </row>
-    <row r="270" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -5910,7 +5924,7 @@
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
     </row>
-    <row r="271" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -5928,7 +5942,7 @@
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
     </row>
-    <row r="272" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -5946,7 +5960,7 @@
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -5964,7 +5978,7 @@
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -5982,7 +5996,7 @@
       <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
     </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -6000,7 +6014,7 @@
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
     </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -6018,7 +6032,7 @@
       <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
     </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -6036,7 +6050,7 @@
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
     </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -6054,7 +6068,7 @@
       <c r="Q278" s="3"/>
       <c r="R278" s="3"/>
     </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -6072,7 +6086,7 @@
       <c r="Q279" s="3"/>
       <c r="R279" s="3"/>
     </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -6090,7 +6104,7 @@
       <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
     </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -6108,7 +6122,7 @@
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
     </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -6126,7 +6140,7 @@
       <c r="Q282" s="3"/>
       <c r="R282" s="3"/>
     </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -6144,7 +6158,7 @@
       <c r="Q283" s="3"/>
       <c r="R283" s="3"/>
     </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -6162,7 +6176,7 @@
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
     </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -6180,7 +6194,7 @@
       <c r="Q285" s="3"/>
       <c r="R285" s="3"/>
     </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -6198,7 +6212,7 @@
       <c r="Q286" s="3"/>
       <c r="R286" s="3"/>
     </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -6216,7 +6230,7 @@
       <c r="Q287" s="3"/>
       <c r="R287" s="3"/>
     </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -6234,7 +6248,7 @@
       <c r="Q288" s="3"/>
       <c r="R288" s="3"/>
     </row>
-    <row r="289" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -6252,7 +6266,7 @@
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
     </row>
-    <row r="290" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -6270,7 +6284,7 @@
       <c r="Q290" s="3"/>
       <c r="R290" s="3"/>
     </row>
-    <row r="291" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -6288,7 +6302,7 @@
       <c r="Q291" s="3"/>
       <c r="R291" s="3"/>
     </row>
-    <row r="292" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -6306,7 +6320,7 @@
       <c r="Q292" s="3"/>
       <c r="R292" s="3"/>
     </row>
-    <row r="293" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -6324,7 +6338,7 @@
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
     </row>
-    <row r="294" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -6342,7 +6356,7 @@
       <c r="Q294" s="3"/>
       <c r="R294" s="3"/>
     </row>
-    <row r="295" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -6360,7 +6374,7 @@
       <c r="Q295" s="3"/>
       <c r="R295" s="3"/>
     </row>
-    <row r="296" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -6378,7 +6392,7 @@
       <c r="Q296" s="3"/>
       <c r="R296" s="3"/>
     </row>
-    <row r="297" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -6396,7 +6410,7 @@
       <c r="Q297" s="3"/>
       <c r="R297" s="3"/>
     </row>
-    <row r="298" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -6414,7 +6428,7 @@
       <c r="Q298" s="3"/>
       <c r="R298" s="3"/>
     </row>
-    <row r="299" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -6432,7 +6446,7 @@
       <c r="Q299" s="3"/>
       <c r="R299" s="3"/>
     </row>
-    <row r="300" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -6450,7 +6464,7 @@
       <c r="Q300" s="3"/>
       <c r="R300" s="3"/>
     </row>
-    <row r="301" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -6468,7 +6482,7 @@
       <c r="Q301" s="3"/>
       <c r="R301" s="3"/>
     </row>
-    <row r="302" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -6486,7 +6500,7 @@
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
     </row>
-    <row r="303" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -6504,7 +6518,7 @@
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
     </row>
-    <row r="304" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -6522,7 +6536,7 @@
       <c r="Q304" s="3"/>
       <c r="R304" s="3"/>
     </row>
-    <row r="305" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -6540,7 +6554,7 @@
       <c r="Q305" s="3"/>
       <c r="R305" s="3"/>
     </row>
-    <row r="306" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -6558,7 +6572,7 @@
       <c r="Q306" s="3"/>
       <c r="R306" s="3"/>
     </row>
-    <row r="307" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -6576,7 +6590,7 @@
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
     </row>
-    <row r="308" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -6594,7 +6608,7 @@
       <c r="Q308" s="3"/>
       <c r="R308" s="3"/>
     </row>
-    <row r="309" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -6612,7 +6626,7 @@
       <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
     </row>
-    <row r="310" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -6630,7 +6644,7 @@
       <c r="Q310" s="3"/>
       <c r="R310" s="3"/>
     </row>
-    <row r="311" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -6648,7 +6662,7 @@
       <c r="Q311" s="3"/>
       <c r="R311" s="3"/>
     </row>
-    <row r="312" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -6666,7 +6680,7 @@
       <c r="Q312" s="3"/>
       <c r="R312" s="3"/>
     </row>
-    <row r="313" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -6684,7 +6698,7 @@
       <c r="Q313" s="3"/>
       <c r="R313" s="3"/>
     </row>
-    <row r="314" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -6702,7 +6716,7 @@
       <c r="Q314" s="3"/>
       <c r="R314" s="3"/>
     </row>
-    <row r="315" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -6720,7 +6734,7 @@
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
     </row>
-    <row r="316" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -6738,7 +6752,7 @@
       <c r="Q316" s="3"/>
       <c r="R316" s="3"/>
     </row>
-    <row r="317" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -6756,7 +6770,7 @@
       <c r="Q317" s="3"/>
       <c r="R317" s="3"/>
     </row>
-    <row r="318" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -6774,7 +6788,7 @@
       <c r="Q318" s="3"/>
       <c r="R318" s="3"/>
     </row>
-    <row r="319" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -6792,7 +6806,7 @@
       <c r="Q319" s="3"/>
       <c r="R319" s="3"/>
     </row>
-    <row r="320" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -6810,7 +6824,7 @@
       <c r="Q320" s="3"/>
       <c r="R320" s="3"/>
     </row>
-    <row r="321" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -6828,7 +6842,7 @@
       <c r="Q321" s="3"/>
       <c r="R321" s="3"/>
     </row>
-    <row r="322" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -6846,7 +6860,7 @@
       <c r="Q322" s="3"/>
       <c r="R322" s="3"/>
     </row>
-    <row r="323" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -6864,7 +6878,7 @@
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
     </row>
-    <row r="324" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -6882,7 +6896,7 @@
       <c r="Q324" s="3"/>
       <c r="R324" s="3"/>
     </row>
-    <row r="325" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -6900,7 +6914,7 @@
       <c r="Q325" s="3"/>
       <c r="R325" s="3"/>
     </row>
-    <row r="326" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -6918,7 +6932,7 @@
       <c r="Q326" s="3"/>
       <c r="R326" s="3"/>
     </row>
-    <row r="327" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -6936,7 +6950,7 @@
       <c r="Q327" s="3"/>
       <c r="R327" s="3"/>
     </row>
-    <row r="328" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -6954,7 +6968,7 @@
       <c r="Q328" s="3"/>
       <c r="R328" s="3"/>
     </row>
-    <row r="329" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -6972,7 +6986,7 @@
       <c r="Q329" s="3"/>
       <c r="R329" s="3"/>
     </row>
-    <row r="330" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -6990,7 +7004,7 @@
       <c r="Q330" s="3"/>
       <c r="R330" s="3"/>
     </row>
-    <row r="331" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -7008,7 +7022,7 @@
       <c r="Q331" s="3"/>
       <c r="R331" s="3"/>
     </row>
-    <row r="332" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -7026,7 +7040,7 @@
       <c r="Q332" s="3"/>
       <c r="R332" s="3"/>
     </row>
-    <row r="333" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -7044,7 +7058,7 @@
       <c r="Q333" s="3"/>
       <c r="R333" s="3"/>
     </row>
-    <row r="334" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -7062,7 +7076,7 @@
       <c r="Q334" s="3"/>
       <c r="R334" s="3"/>
     </row>
-    <row r="335" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -7080,7 +7094,7 @@
       <c r="Q335" s="3"/>
       <c r="R335" s="3"/>
     </row>
-    <row r="336" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -7098,7 +7112,7 @@
       <c r="Q336" s="3"/>
       <c r="R336" s="3"/>
     </row>
-    <row r="337" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -7116,7 +7130,7 @@
       <c r="Q337" s="3"/>
       <c r="R337" s="3"/>
     </row>
-    <row r="338" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -7134,7 +7148,7 @@
       <c r="Q338" s="3"/>
       <c r="R338" s="3"/>
     </row>
-    <row r="339" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -7152,7 +7166,7 @@
       <c r="Q339" s="3"/>
       <c r="R339" s="3"/>
     </row>
-    <row r="340" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -7170,7 +7184,7 @@
       <c r="Q340" s="3"/>
       <c r="R340" s="3"/>
     </row>
-    <row r="341" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -7188,7 +7202,7 @@
       <c r="Q341" s="3"/>
       <c r="R341" s="3"/>
     </row>
-    <row r="342" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -7206,7 +7220,7 @@
       <c r="Q342" s="3"/>
       <c r="R342" s="3"/>
     </row>
-    <row r="343" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -7224,7 +7238,7 @@
       <c r="Q343" s="3"/>
       <c r="R343" s="3"/>
     </row>
-    <row r="344" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -7242,7 +7256,7 @@
       <c r="Q344" s="3"/>
       <c r="R344" s="3"/>
     </row>
-    <row r="345" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -7260,7 +7274,7 @@
       <c r="Q345" s="3"/>
       <c r="R345" s="3"/>
     </row>
-    <row r="346" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -7278,7 +7292,7 @@
       <c r="Q346" s="3"/>
       <c r="R346" s="3"/>
     </row>
-    <row r="347" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -7296,7 +7310,7 @@
       <c r="Q347" s="3"/>
       <c r="R347" s="3"/>
     </row>
-    <row r="348" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -7314,7 +7328,7 @@
       <c r="Q348" s="3"/>
       <c r="R348" s="3"/>
     </row>
-    <row r="349" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -7332,7 +7346,7 @@
       <c r="Q349" s="3"/>
       <c r="R349" s="3"/>
     </row>
-    <row r="350" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -7350,7 +7364,7 @@
       <c r="Q350" s="3"/>
       <c r="R350" s="3"/>
     </row>
-    <row r="351" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -7368,7 +7382,7 @@
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
     </row>
-    <row r="352" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -7386,7 +7400,7 @@
       <c r="Q352" s="3"/>
       <c r="R352" s="3"/>
     </row>
-    <row r="353" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -7404,7 +7418,7 @@
       <c r="Q353" s="3"/>
       <c r="R353" s="3"/>
     </row>
-    <row r="354" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -7422,7 +7436,7 @@
       <c r="Q354" s="3"/>
       <c r="R354" s="3"/>
     </row>
-    <row r="355" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -7440,7 +7454,7 @@
       <c r="Q355" s="3"/>
       <c r="R355" s="3"/>
     </row>
-    <row r="356" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -7458,7 +7472,7 @@
       <c r="Q356" s="3"/>
       <c r="R356" s="3"/>
     </row>
-    <row r="357" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -7476,7 +7490,7 @@
       <c r="Q357" s="3"/>
       <c r="R357" s="3"/>
     </row>
-    <row r="358" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -7494,7 +7508,7 @@
       <c r="Q358" s="3"/>
       <c r="R358" s="3"/>
     </row>
-    <row r="359" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -7512,7 +7526,7 @@
       <c r="Q359" s="3"/>
       <c r="R359" s="3"/>
     </row>
-    <row r="360" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -7530,7 +7544,7 @@
       <c r="Q360" s="3"/>
       <c r="R360" s="3"/>
     </row>
-    <row r="361" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -7548,7 +7562,7 @@
       <c r="Q361" s="3"/>
       <c r="R361" s="3"/>
     </row>
-    <row r="362" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -7566,7 +7580,7 @@
       <c r="Q362" s="3"/>
       <c r="R362" s="3"/>
     </row>
-    <row r="363" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -7584,7 +7598,7 @@
       <c r="Q363" s="3"/>
       <c r="R363" s="3"/>
     </row>
-    <row r="364" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -7602,7 +7616,7 @@
       <c r="Q364" s="3"/>
       <c r="R364" s="3"/>
     </row>
-    <row r="365" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -7620,7 +7634,7 @@
       <c r="Q365" s="3"/>
       <c r="R365" s="3"/>
     </row>
-    <row r="366" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -7638,7 +7652,7 @@
       <c r="Q366" s="3"/>
       <c r="R366" s="3"/>
     </row>
-    <row r="367" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -7656,7 +7670,7 @@
       <c r="Q367" s="3"/>
       <c r="R367" s="3"/>
     </row>
-    <row r="368" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -7674,7 +7688,7 @@
       <c r="Q368" s="3"/>
       <c r="R368" s="3"/>
     </row>
-    <row r="369" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -7692,7 +7706,7 @@
       <c r="Q369" s="3"/>
       <c r="R369" s="3"/>
     </row>
-    <row r="370" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -7710,7 +7724,7 @@
       <c r="Q370" s="3"/>
       <c r="R370" s="3"/>
     </row>
-    <row r="371" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -7728,7 +7742,7 @@
       <c r="Q371" s="3"/>
       <c r="R371" s="3"/>
     </row>
-    <row r="372" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -7746,7 +7760,7 @@
       <c r="Q372" s="3"/>
       <c r="R372" s="3"/>
     </row>
-    <row r="373" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -7764,7 +7778,7 @@
       <c r="Q373" s="3"/>
       <c r="R373" s="3"/>
     </row>
-    <row r="374" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -7782,7 +7796,7 @@
       <c r="Q374" s="3"/>
       <c r="R374" s="3"/>
     </row>
-    <row r="375" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -7800,7 +7814,7 @@
       <c r="Q375" s="3"/>
       <c r="R375" s="3"/>
     </row>
-    <row r="376" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -7818,7 +7832,7 @@
       <c r="Q376" s="3"/>
       <c r="R376" s="3"/>
     </row>
-    <row r="377" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -7836,7 +7850,7 @@
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
     </row>
-    <row r="378" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -7854,7 +7868,7 @@
       <c r="Q378" s="3"/>
       <c r="R378" s="3"/>
     </row>
-    <row r="379" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -7872,7 +7886,7 @@
       <c r="Q379" s="3"/>
       <c r="R379" s="3"/>
     </row>
-    <row r="380" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -7890,7 +7904,7 @@
       <c r="Q380" s="3"/>
       <c r="R380" s="3"/>
     </row>
-    <row r="381" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -7908,7 +7922,7 @@
       <c r="Q381" s="3"/>
       <c r="R381" s="3"/>
     </row>
-    <row r="382" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -7926,7 +7940,7 @@
       <c r="Q382" s="3"/>
       <c r="R382" s="3"/>
     </row>
-    <row r="383" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -7944,7 +7958,7 @@
       <c r="Q383" s="3"/>
       <c r="R383" s="3"/>
     </row>
-    <row r="384" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -7962,7 +7976,7 @@
       <c r="Q384" s="3"/>
       <c r="R384" s="3"/>
     </row>
-    <row r="385" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -7980,7 +7994,7 @@
       <c r="Q385" s="3"/>
       <c r="R385" s="3"/>
     </row>
-    <row r="386" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -7998,7 +8012,7 @@
       <c r="Q386" s="3"/>
       <c r="R386" s="3"/>
     </row>
-    <row r="387" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -8016,7 +8030,7 @@
       <c r="Q387" s="3"/>
       <c r="R387" s="3"/>
     </row>
-    <row r="388" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -8034,7 +8048,7 @@
       <c r="Q388" s="3"/>
       <c r="R388" s="3"/>
     </row>
-    <row r="389" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -8052,7 +8066,7 @@
       <c r="Q389" s="3"/>
       <c r="R389" s="3"/>
     </row>
-    <row r="390" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -8070,7 +8084,7 @@
       <c r="Q390" s="3"/>
       <c r="R390" s="3"/>
     </row>
-    <row r="391" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -8088,7 +8102,7 @@
       <c r="Q391" s="3"/>
       <c r="R391" s="3"/>
     </row>
-    <row r="392" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -8106,7 +8120,7 @@
       <c r="Q392" s="3"/>
       <c r="R392" s="3"/>
     </row>
-    <row r="393" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -8124,7 +8138,7 @@
       <c r="Q393" s="3"/>
       <c r="R393" s="3"/>
     </row>
-    <row r="394" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -8142,7 +8156,7 @@
       <c r="Q394" s="3"/>
       <c r="R394" s="3"/>
     </row>
-    <row r="395" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -8160,7 +8174,7 @@
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
     </row>
-    <row r="396" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -8178,7 +8192,7 @@
       <c r="Q396" s="3"/>
       <c r="R396" s="3"/>
     </row>
-    <row r="397" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -8196,7 +8210,7 @@
       <c r="Q397" s="3"/>
       <c r="R397" s="3"/>
     </row>
-    <row r="398" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -8214,7 +8228,7 @@
       <c r="Q398" s="3"/>
       <c r="R398" s="3"/>
     </row>
-    <row r="399" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -8232,7 +8246,7 @@
       <c r="Q399" s="3"/>
       <c r="R399" s="3"/>
     </row>
-    <row r="400" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -8250,7 +8264,7 @@
       <c r="Q400" s="3"/>
       <c r="R400" s="3"/>
     </row>
-    <row r="401" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -8268,7 +8282,7 @@
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
     </row>
-    <row r="402" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -8286,7 +8300,7 @@
       <c r="Q402" s="3"/>
       <c r="R402" s="3"/>
     </row>
-    <row r="403" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -8304,7 +8318,7 @@
       <c r="Q403" s="3"/>
       <c r="R403" s="3"/>
     </row>
-    <row r="404" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -8322,7 +8336,7 @@
       <c r="Q404" s="3"/>
       <c r="R404" s="3"/>
     </row>
-    <row r="405" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -8340,7 +8354,7 @@
       <c r="Q405" s="3"/>
       <c r="R405" s="3"/>
     </row>
-    <row r="406" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -8358,7 +8372,7 @@
       <c r="Q406" s="3"/>
       <c r="R406" s="3"/>
     </row>
-    <row r="407" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -8376,7 +8390,7 @@
       <c r="Q407" s="3"/>
       <c r="R407" s="3"/>
     </row>
-    <row r="408" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -8394,7 +8408,7 @@
       <c r="Q408" s="3"/>
       <c r="R408" s="3"/>
     </row>
-    <row r="409" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -8412,7 +8426,7 @@
       <c r="Q409" s="3"/>
       <c r="R409" s="3"/>
     </row>
-    <row r="410" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -8430,7 +8444,7 @@
       <c r="Q410" s="3"/>
       <c r="R410" s="3"/>
     </row>
-    <row r="411" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -8448,7 +8462,7 @@
       <c r="Q411" s="3"/>
       <c r="R411" s="3"/>
     </row>
-    <row r="412" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -8466,7 +8480,7 @@
       <c r="Q412" s="3"/>
       <c r="R412" s="3"/>
     </row>
-    <row r="413" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -8484,7 +8498,7 @@
       <c r="Q413" s="3"/>
       <c r="R413" s="3"/>
     </row>
-    <row r="414" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -8502,7 +8516,7 @@
       <c r="Q414" s="3"/>
       <c r="R414" s="3"/>
     </row>
-    <row r="415" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -8520,7 +8534,7 @@
       <c r="Q415" s="3"/>
       <c r="R415" s="3"/>
     </row>
-    <row r="416" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -8538,7 +8552,7 @@
       <c r="Q416" s="3"/>
       <c r="R416" s="3"/>
     </row>
-    <row r="417" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -8556,7 +8570,7 @@
       <c r="Q417" s="3"/>
       <c r="R417" s="3"/>
     </row>
-    <row r="418" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -8574,7 +8588,7 @@
       <c r="Q418" s="3"/>
       <c r="R418" s="3"/>
     </row>
-    <row r="419" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -8592,7 +8606,7 @@
       <c r="Q419" s="3"/>
       <c r="R419" s="3"/>
     </row>
-    <row r="420" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -8610,7 +8624,7 @@
       <c r="Q420" s="3"/>
       <c r="R420" s="3"/>
     </row>
-    <row r="421" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -8628,7 +8642,7 @@
       <c r="Q421" s="3"/>
       <c r="R421" s="3"/>
     </row>
-    <row r="422" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -8646,7 +8660,7 @@
       <c r="Q422" s="3"/>
       <c r="R422" s="3"/>
     </row>
-    <row r="423" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -8664,7 +8678,7 @@
       <c r="Q423" s="3"/>
       <c r="R423" s="3"/>
     </row>
-    <row r="424" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -8682,7 +8696,7 @@
       <c r="Q424" s="3"/>
       <c r="R424" s="3"/>
     </row>
-    <row r="425" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -8700,7 +8714,7 @@
       <c r="Q425" s="3"/>
       <c r="R425" s="3"/>
     </row>
-    <row r="426" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -8718,7 +8732,7 @@
       <c r="Q426" s="3"/>
       <c r="R426" s="3"/>
     </row>
-    <row r="427" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -8736,7 +8750,7 @@
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
     </row>
-    <row r="428" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -8754,7 +8768,7 @@
       <c r="Q428" s="3"/>
       <c r="R428" s="3"/>
     </row>
-    <row r="429" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -8772,7 +8786,7 @@
       <c r="Q429" s="3"/>
       <c r="R429" s="3"/>
     </row>
-    <row r="430" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -8790,7 +8804,7 @@
       <c r="Q430" s="3"/>
       <c r="R430" s="3"/>
     </row>
-    <row r="431" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -8808,7 +8822,7 @@
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
     </row>
-    <row r="432" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -8826,7 +8840,7 @@
       <c r="Q432" s="3"/>
       <c r="R432" s="3"/>
     </row>
-    <row r="433" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -8844,7 +8858,7 @@
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
     </row>
-    <row r="434" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -8862,7 +8876,7 @@
       <c r="Q434" s="3"/>
       <c r="R434" s="3"/>
     </row>
-    <row r="435" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -8880,7 +8894,7 @@
       <c r="Q435" s="3"/>
       <c r="R435" s="3"/>
     </row>
-    <row r="436" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -8898,7 +8912,7 @@
       <c r="Q436" s="3"/>
       <c r="R436" s="3"/>
     </row>
-    <row r="437" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -8916,7 +8930,7 @@
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
     </row>
-    <row r="438" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -8934,7 +8948,7 @@
       <c r="Q438" s="3"/>
       <c r="R438" s="3"/>
     </row>
-    <row r="439" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -8952,7 +8966,7 @@
       <c r="Q439" s="3"/>
       <c r="R439" s="3"/>
     </row>
-    <row r="440" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -8970,7 +8984,7 @@
       <c r="Q440" s="3"/>
       <c r="R440" s="3"/>
     </row>
-    <row r="441" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -8988,7 +9002,7 @@
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
     </row>
-    <row r="442" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -9006,7 +9020,7 @@
       <c r="Q442" s="3"/>
       <c r="R442" s="3"/>
     </row>
-    <row r="443" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -9024,7 +9038,7 @@
       <c r="Q443" s="3"/>
       <c r="R443" s="3"/>
     </row>
-    <row r="444" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -9042,7 +9056,7 @@
       <c r="Q444" s="3"/>
       <c r="R444" s="3"/>
     </row>
-    <row r="445" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -9060,7 +9074,7 @@
       <c r="Q445" s="3"/>
       <c r="R445" s="3"/>
     </row>
-    <row r="446" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -9078,7 +9092,7 @@
       <c r="Q446" s="3"/>
       <c r="R446" s="3"/>
     </row>
-    <row r="447" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -9096,7 +9110,7 @@
       <c r="Q447" s="3"/>
       <c r="R447" s="3"/>
     </row>
-    <row r="448" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -9114,7 +9128,7 @@
       <c r="Q448" s="3"/>
       <c r="R448" s="3"/>
     </row>
-    <row r="449" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -9132,7 +9146,7 @@
       <c r="Q449" s="3"/>
       <c r="R449" s="3"/>
     </row>
-    <row r="450" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -9150,7 +9164,7 @@
       <c r="Q450" s="3"/>
       <c r="R450" s="3"/>
     </row>
-    <row r="451" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -9168,7 +9182,7 @@
       <c r="Q451" s="3"/>
       <c r="R451" s="3"/>
     </row>
-    <row r="452" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -9186,7 +9200,7 @@
       <c r="Q452" s="3"/>
       <c r="R452" s="3"/>
     </row>
-    <row r="453" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -9204,7 +9218,7 @@
       <c r="Q453" s="3"/>
       <c r="R453" s="3"/>
     </row>
-    <row r="454" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -9222,7 +9236,7 @@
       <c r="Q454" s="3"/>
       <c r="R454" s="3"/>
     </row>
-    <row r="455" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -9240,7 +9254,7 @@
       <c r="Q455" s="3"/>
       <c r="R455" s="3"/>
     </row>
-    <row r="456" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -9258,7 +9272,7 @@
       <c r="Q456" s="3"/>
       <c r="R456" s="3"/>
     </row>
-    <row r="457" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -9276,7 +9290,7 @@
       <c r="Q457" s="3"/>
       <c r="R457" s="3"/>
     </row>
-    <row r="458" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -9294,7 +9308,7 @@
       <c r="Q458" s="3"/>
       <c r="R458" s="3"/>
     </row>
-    <row r="459" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -9312,7 +9326,7 @@
       <c r="Q459" s="3"/>
       <c r="R459" s="3"/>
     </row>
-    <row r="460" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -9330,7 +9344,7 @@
       <c r="Q460" s="3"/>
       <c r="R460" s="3"/>
     </row>
-    <row r="461" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -9348,7 +9362,7 @@
       <c r="Q461" s="3"/>
       <c r="R461" s="3"/>
     </row>
-    <row r="462" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -9366,7 +9380,7 @@
       <c r="Q462" s="3"/>
       <c r="R462" s="3"/>
     </row>
-    <row r="463" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -9384,7 +9398,7 @@
       <c r="Q463" s="3"/>
       <c r="R463" s="3"/>
     </row>
-    <row r="464" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -9402,7 +9416,7 @@
       <c r="Q464" s="3"/>
       <c r="R464" s="3"/>
     </row>
-    <row r="465" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -9420,7 +9434,7 @@
       <c r="Q465" s="3"/>
       <c r="R465" s="3"/>
     </row>
-    <row r="466" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -9438,7 +9452,7 @@
       <c r="Q466" s="3"/>
       <c r="R466" s="3"/>
     </row>
-    <row r="467" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -9456,7 +9470,7 @@
       <c r="Q467" s="3"/>
       <c r="R467" s="3"/>
     </row>
-    <row r="468" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -9474,7 +9488,7 @@
       <c r="Q468" s="3"/>
       <c r="R468" s="3"/>
     </row>
-    <row r="469" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -9492,7 +9506,7 @@
       <c r="Q469" s="3"/>
       <c r="R469" s="3"/>
     </row>
-    <row r="470" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -9510,7 +9524,7 @@
       <c r="Q470" s="3"/>
       <c r="R470" s="3"/>
     </row>
-    <row r="471" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -9528,7 +9542,7 @@
       <c r="Q471" s="3"/>
       <c r="R471" s="3"/>
     </row>
-    <row r="472" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -9546,7 +9560,7 @@
       <c r="Q472" s="3"/>
       <c r="R472" s="3"/>
     </row>
-    <row r="473" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -9564,7 +9578,7 @@
       <c r="Q473" s="3"/>
       <c r="R473" s="3"/>
     </row>
-    <row r="474" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -9582,7 +9596,7 @@
       <c r="Q474" s="3"/>
       <c r="R474" s="3"/>
     </row>
-    <row r="475" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -9600,7 +9614,7 @@
       <c r="Q475" s="3"/>
       <c r="R475" s="3"/>
     </row>
-    <row r="476" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -9618,7 +9632,7 @@
       <c r="Q476" s="3"/>
       <c r="R476" s="3"/>
     </row>
-    <row r="477" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -9636,7 +9650,7 @@
       <c r="Q477" s="3"/>
       <c r="R477" s="3"/>
     </row>
-    <row r="478" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -9654,7 +9668,7 @@
       <c r="Q478" s="3"/>
       <c r="R478" s="3"/>
     </row>
-    <row r="479" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -9672,7 +9686,7 @@
       <c r="Q479" s="3"/>
       <c r="R479" s="3"/>
     </row>
-    <row r="480" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -9690,7 +9704,7 @@
       <c r="Q480" s="3"/>
       <c r="R480" s="3"/>
     </row>
-    <row r="481" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -9708,7 +9722,7 @@
       <c r="Q481" s="3"/>
       <c r="R481" s="3"/>
     </row>
-    <row r="482" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -9726,7 +9740,7 @@
       <c r="Q482" s="3"/>
       <c r="R482" s="3"/>
     </row>
-    <row r="483" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -9744,7 +9758,7 @@
       <c r="Q483" s="3"/>
       <c r="R483" s="3"/>
     </row>
-    <row r="484" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -9762,7 +9776,7 @@
       <c r="Q484" s="3"/>
       <c r="R484" s="3"/>
     </row>
-    <row r="485" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -9780,7 +9794,7 @@
       <c r="Q485" s="3"/>
       <c r="R485" s="3"/>
     </row>
-    <row r="486" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -9798,7 +9812,7 @@
       <c r="Q486" s="3"/>
       <c r="R486" s="3"/>
     </row>
-    <row r="487" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -9816,7 +9830,7 @@
       <c r="Q487" s="3"/>
       <c r="R487" s="3"/>
     </row>
-    <row r="488" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -9834,7 +9848,7 @@
       <c r="Q488" s="3"/>
       <c r="R488" s="3"/>
     </row>
-    <row r="489" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -9852,7 +9866,7 @@
       <c r="Q489" s="3"/>
       <c r="R489" s="3"/>
     </row>
-    <row r="490" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -9870,7 +9884,7 @@
       <c r="Q490" s="3"/>
       <c r="R490" s="3"/>
     </row>
-    <row r="491" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -9888,7 +9902,7 @@
       <c r="Q491" s="3"/>
       <c r="R491" s="3"/>
     </row>
-    <row r="492" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -9906,7 +9920,7 @@
       <c r="Q492" s="3"/>
       <c r="R492" s="3"/>
     </row>
-    <row r="493" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -9924,7 +9938,7 @@
       <c r="Q493" s="3"/>
       <c r="R493" s="3"/>
     </row>
-    <row r="494" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -9942,7 +9956,7 @@
       <c r="Q494" s="3"/>
       <c r="R494" s="3"/>
     </row>
-    <row r="495" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -9960,7 +9974,7 @@
       <c r="Q495" s="3"/>
       <c r="R495" s="3"/>
     </row>
-    <row r="496" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -9978,7 +9992,7 @@
       <c r="Q496" s="3"/>
       <c r="R496" s="3"/>
     </row>
-    <row r="497" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -9996,7 +10010,7 @@
       <c r="Q497" s="3"/>
       <c r="R497" s="3"/>
     </row>
-    <row r="498" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -10014,7 +10028,7 @@
       <c r="Q498" s="3"/>
       <c r="R498" s="3"/>
     </row>
-    <row r="499" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -10032,7 +10046,7 @@
       <c r="Q499" s="3"/>
       <c r="R499" s="3"/>
     </row>
-    <row r="500" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -10050,7 +10064,7 @@
       <c r="Q500" s="3"/>
       <c r="R500" s="3"/>
     </row>
-    <row r="501" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -10068,7 +10082,7 @@
       <c r="Q501" s="3"/>
       <c r="R501" s="3"/>
     </row>
-    <row r="502" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -10086,7 +10100,7 @@
       <c r="Q502" s="3"/>
       <c r="R502" s="3"/>
     </row>
-    <row r="503" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -10104,7 +10118,7 @@
       <c r="Q503" s="3"/>
       <c r="R503" s="3"/>
     </row>
-    <row r="504" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -10122,7 +10136,7 @@
       <c r="Q504" s="3"/>
       <c r="R504" s="3"/>
     </row>
-    <row r="505" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -10140,7 +10154,7 @@
       <c r="Q505" s="3"/>
       <c r="R505" s="3"/>
     </row>
-    <row r="506" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -10158,7 +10172,7 @@
       <c r="Q506" s="3"/>
       <c r="R506" s="3"/>
     </row>
-    <row r="507" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -10176,7 +10190,7 @@
       <c r="Q507" s="3"/>
       <c r="R507" s="3"/>
     </row>
-    <row r="508" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -10194,7 +10208,7 @@
       <c r="Q508" s="3"/>
       <c r="R508" s="3"/>
     </row>
-    <row r="509" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -10212,7 +10226,7 @@
       <c r="Q509" s="3"/>
       <c r="R509" s="3"/>
     </row>
-    <row r="510" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -10230,7 +10244,7 @@
       <c r="Q510" s="3"/>
       <c r="R510" s="3"/>
     </row>
-    <row r="511" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -10248,7 +10262,7 @@
       <c r="Q511" s="3"/>
       <c r="R511" s="3"/>
     </row>
-    <row r="512" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -10266,7 +10280,7 @@
       <c r="Q512" s="3"/>
       <c r="R512" s="3"/>
     </row>
-    <row r="513" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -10284,7 +10298,7 @@
       <c r="Q513" s="3"/>
       <c r="R513" s="3"/>
     </row>
-    <row r="514" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -10302,7 +10316,7 @@
       <c r="Q514" s="3"/>
       <c r="R514" s="3"/>
     </row>
-    <row r="515" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -10320,7 +10334,7 @@
       <c r="Q515" s="3"/>
       <c r="R515" s="3"/>
     </row>
-    <row r="516" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -10338,7 +10352,7 @@
       <c r="Q516" s="3"/>
       <c r="R516" s="3"/>
     </row>
-    <row r="517" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -10356,7 +10370,7 @@
       <c r="Q517" s="3"/>
       <c r="R517" s="3"/>
     </row>
-    <row r="518" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -10374,7 +10388,7 @@
       <c r="Q518" s="3"/>
       <c r="R518" s="3"/>
     </row>
-    <row r="519" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -10392,7 +10406,7 @@
       <c r="Q519" s="3"/>
       <c r="R519" s="3"/>
     </row>
-    <row r="520" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -10410,7 +10424,7 @@
       <c r="Q520" s="3"/>
       <c r="R520" s="3"/>
     </row>
-    <row r="521" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -10428,7 +10442,7 @@
       <c r="Q521" s="3"/>
       <c r="R521" s="3"/>
     </row>
-    <row r="522" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -10446,7 +10460,7 @@
       <c r="Q522" s="3"/>
       <c r="R522" s="3"/>
     </row>
-    <row r="523" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -10464,7 +10478,7 @@
       <c r="Q523" s="3"/>
       <c r="R523" s="3"/>
     </row>
-    <row r="524" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -10482,7 +10496,7 @@
       <c r="Q524" s="3"/>
       <c r="R524" s="3"/>
     </row>
-    <row r="525" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -10500,7 +10514,7 @@
       <c r="Q525" s="3"/>
       <c r="R525" s="3"/>
     </row>
-    <row r="526" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -10518,7 +10532,7 @@
       <c r="Q526" s="3"/>
       <c r="R526" s="3"/>
     </row>
-    <row r="527" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -10536,7 +10550,7 @@
       <c r="Q527" s="3"/>
       <c r="R527" s="3"/>
     </row>
-    <row r="528" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -10554,7 +10568,7 @@
       <c r="Q528" s="3"/>
       <c r="R528" s="3"/>
     </row>
-    <row r="529" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -10572,7 +10586,7 @@
       <c r="Q529" s="3"/>
       <c r="R529" s="3"/>
     </row>
-    <row r="530" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -10590,7 +10604,7 @@
       <c r="Q530" s="3"/>
       <c r="R530" s="3"/>
     </row>
-    <row r="531" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -10608,7 +10622,7 @@
       <c r="Q531" s="3"/>
       <c r="R531" s="3"/>
     </row>
-    <row r="532" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -10626,7 +10640,7 @@
       <c r="Q532" s="3"/>
       <c r="R532" s="3"/>
     </row>
-    <row r="533" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -10644,7 +10658,7 @@
       <c r="Q533" s="3"/>
       <c r="R533" s="3"/>
     </row>
-    <row r="534" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -10662,7 +10676,7 @@
       <c r="Q534" s="3"/>
       <c r="R534" s="3"/>
     </row>
-    <row r="535" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -10680,7 +10694,7 @@
       <c r="Q535" s="3"/>
       <c r="R535" s="3"/>
     </row>
-    <row r="536" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -10698,7 +10712,7 @@
       <c r="Q536" s="3"/>
       <c r="R536" s="3"/>
     </row>
-    <row r="537" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -10716,7 +10730,7 @@
       <c r="Q537" s="3"/>
       <c r="R537" s="3"/>
     </row>
-    <row r="538" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -10734,7 +10748,7 @@
       <c r="Q538" s="3"/>
       <c r="R538" s="3"/>
     </row>
-    <row r="539" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -10752,7 +10766,7 @@
       <c r="Q539" s="3"/>
       <c r="R539" s="3"/>
     </row>
-    <row r="540" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -10770,7 +10784,7 @@
       <c r="Q540" s="3"/>
       <c r="R540" s="3"/>
     </row>
-    <row r="541" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -10788,7 +10802,7 @@
       <c r="Q541" s="3"/>
       <c r="R541" s="3"/>
     </row>
-    <row r="542" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -10806,7 +10820,7 @@
       <c r="Q542" s="3"/>
       <c r="R542" s="3"/>
     </row>
-    <row r="543" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -10824,7 +10838,7 @@
       <c r="Q543" s="3"/>
       <c r="R543" s="3"/>
     </row>
-    <row r="544" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -10842,7 +10856,7 @@
       <c r="Q544" s="3"/>
       <c r="R544" s="3"/>
     </row>
-    <row r="545" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -10860,7 +10874,7 @@
       <c r="Q545" s="3"/>
       <c r="R545" s="3"/>
     </row>
-    <row r="546" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -10878,7 +10892,7 @@
       <c r="Q546" s="3"/>
       <c r="R546" s="3"/>
     </row>
-    <row r="547" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -10896,7 +10910,7 @@
       <c r="Q547" s="3"/>
       <c r="R547" s="3"/>
     </row>
-    <row r="548" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -10914,7 +10928,7 @@
       <c r="Q548" s="3"/>
       <c r="R548" s="3"/>
     </row>
-    <row r="549" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -10932,7 +10946,7 @@
       <c r="Q549" s="3"/>
       <c r="R549" s="3"/>
     </row>
-    <row r="550" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -10950,7 +10964,7 @@
       <c r="Q550" s="3"/>
       <c r="R550" s="3"/>
     </row>
-    <row r="551" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -10968,7 +10982,7 @@
       <c r="Q551" s="3"/>
       <c r="R551" s="3"/>
     </row>
-    <row r="552" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -10986,7 +11000,7 @@
       <c r="Q552" s="3"/>
       <c r="R552" s="3"/>
     </row>
-    <row r="553" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -11004,7 +11018,7 @@
       <c r="Q553" s="3"/>
       <c r="R553" s="3"/>
     </row>
-    <row r="554" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -11022,7 +11036,7 @@
       <c r="Q554" s="3"/>
       <c r="R554" s="3"/>
     </row>
-    <row r="555" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -11040,7 +11054,7 @@
       <c r="Q555" s="3"/>
       <c r="R555" s="3"/>
     </row>
-    <row r="556" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -11058,7 +11072,7 @@
       <c r="Q556" s="3"/>
       <c r="R556" s="3"/>
     </row>
-    <row r="557" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -11076,7 +11090,7 @@
       <c r="Q557" s="3"/>
       <c r="R557" s="3"/>
     </row>
-    <row r="558" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -11094,7 +11108,7 @@
       <c r="Q558" s="3"/>
       <c r="R558" s="3"/>
     </row>
-    <row r="559" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -11112,7 +11126,7 @@
       <c r="Q559" s="3"/>
       <c r="R559" s="3"/>
     </row>
-    <row r="560" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -11130,7 +11144,7 @@
       <c r="Q560" s="3"/>
       <c r="R560" s="3"/>
     </row>
-    <row r="561" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
@@ -11148,7 +11162,7 @@
       <c r="Q561" s="3"/>
       <c r="R561" s="3"/>
     </row>
-    <row r="562" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
@@ -11166,7 +11180,7 @@
       <c r="Q562" s="3"/>
       <c r="R562" s="3"/>
     </row>
-    <row r="563" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
@@ -11184,7 +11198,7 @@
       <c r="Q563" s="3"/>
       <c r="R563" s="3"/>
     </row>
-    <row r="564" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
@@ -11202,7 +11216,7 @@
       <c r="Q564" s="3"/>
       <c r="R564" s="3"/>
     </row>
-    <row r="565" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
@@ -11220,7 +11234,7 @@
       <c r="Q565" s="3"/>
       <c r="R565" s="3"/>
     </row>
-    <row r="566" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
@@ -11238,7 +11252,7 @@
       <c r="Q566" s="3"/>
       <c r="R566" s="3"/>
     </row>
-    <row r="567" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -11256,7 +11270,7 @@
       <c r="Q567" s="3"/>
       <c r="R567" s="3"/>
     </row>
-    <row r="568" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
@@ -11274,7 +11288,7 @@
       <c r="Q568" s="3"/>
       <c r="R568" s="3"/>
     </row>
-    <row r="569" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
@@ -11292,7 +11306,7 @@
       <c r="Q569" s="3"/>
       <c r="R569" s="3"/>
     </row>
-    <row r="570" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -11310,7 +11324,7 @@
       <c r="Q570" s="3"/>
       <c r="R570" s="3"/>
     </row>
-    <row r="571" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
@@ -11328,7 +11342,7 @@
       <c r="Q571" s="3"/>
       <c r="R571" s="3"/>
     </row>
-    <row r="572" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -11346,7 +11360,7 @@
       <c r="Q572" s="3"/>
       <c r="R572" s="3"/>
     </row>
-    <row r="573" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -11364,7 +11378,7 @@
       <c r="Q573" s="3"/>
       <c r="R573" s="3"/>
     </row>
-    <row r="574" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
@@ -11382,7 +11396,7 @@
       <c r="Q574" s="3"/>
       <c r="R574" s="3"/>
     </row>
-    <row r="575" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
@@ -11400,7 +11414,7 @@
       <c r="Q575" s="3"/>
       <c r="R575" s="3"/>
     </row>
-    <row r="576" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -11418,7 +11432,7 @@
       <c r="Q576" s="3"/>
       <c r="R576" s="3"/>
     </row>
-    <row r="577" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -11436,7 +11450,7 @@
       <c r="Q577" s="3"/>
       <c r="R577" s="3"/>
     </row>
-    <row r="578" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
@@ -11454,7 +11468,7 @@
       <c r="Q578" s="3"/>
       <c r="R578" s="3"/>
     </row>
-    <row r="579" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
@@ -11472,7 +11486,7 @@
       <c r="Q579" s="3"/>
       <c r="R579" s="3"/>
     </row>
-    <row r="580" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
@@ -11490,7 +11504,7 @@
       <c r="Q580" s="3"/>
       <c r="R580" s="3"/>
     </row>
-    <row r="581" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
@@ -11508,7 +11522,7 @@
       <c r="Q581" s="3"/>
       <c r="R581" s="3"/>
     </row>
-    <row r="582" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
@@ -11526,7 +11540,7 @@
       <c r="Q582" s="3"/>
       <c r="R582" s="3"/>
     </row>
-    <row r="583" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
@@ -11544,7 +11558,7 @@
       <c r="Q583" s="3"/>
       <c r="R583" s="3"/>
     </row>
-    <row r="584" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
@@ -11562,7 +11576,7 @@
       <c r="Q584" s="3"/>
       <c r="R584" s="3"/>
     </row>
-    <row r="585" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
@@ -11580,7 +11594,7 @@
       <c r="Q585" s="3"/>
       <c r="R585" s="3"/>
     </row>
-    <row r="586" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
@@ -11598,7 +11612,7 @@
       <c r="Q586" s="3"/>
       <c r="R586" s="3"/>
     </row>
-    <row r="587" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
@@ -11616,7 +11630,7 @@
       <c r="Q587" s="3"/>
       <c r="R587" s="3"/>
     </row>
-    <row r="588" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
@@ -11634,7 +11648,7 @@
       <c r="Q588" s="3"/>
       <c r="R588" s="3"/>
     </row>
-    <row r="589" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
@@ -11652,7 +11666,7 @@
       <c r="Q589" s="3"/>
       <c r="R589" s="3"/>
     </row>
-    <row r="590" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
@@ -11670,7 +11684,7 @@
       <c r="Q590" s="3"/>
       <c r="R590" s="3"/>
     </row>
-    <row r="591" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
@@ -11688,7 +11702,7 @@
       <c r="Q591" s="3"/>
       <c r="R591" s="3"/>
     </row>
-    <row r="592" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
@@ -11706,7 +11720,7 @@
       <c r="Q592" s="3"/>
       <c r="R592" s="3"/>
     </row>
-    <row r="593" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
@@ -11724,7 +11738,7 @@
       <c r="Q593" s="3"/>
       <c r="R593" s="3"/>
     </row>
-    <row r="594" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -11742,7 +11756,7 @@
       <c r="Q594" s="3"/>
       <c r="R594" s="3"/>
     </row>
-    <row r="595" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
@@ -11760,7 +11774,7 @@
       <c r="Q595" s="3"/>
       <c r="R595" s="3"/>
     </row>
-    <row r="596" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
@@ -11778,7 +11792,7 @@
       <c r="Q596" s="3"/>
       <c r="R596" s="3"/>
     </row>
-    <row r="597" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
@@ -11796,7 +11810,7 @@
       <c r="Q597" s="3"/>
       <c r="R597" s="3"/>
     </row>
-    <row r="598" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
@@ -11814,7 +11828,7 @@
       <c r="Q598" s="3"/>
       <c r="R598" s="3"/>
     </row>
-    <row r="599" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
@@ -11832,7 +11846,7 @@
       <c r="Q599" s="3"/>
       <c r="R599" s="3"/>
     </row>
-    <row r="600" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
@@ -11850,7 +11864,7 @@
       <c r="Q600" s="3"/>
       <c r="R600" s="3"/>
     </row>
-    <row r="601" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
@@ -11868,7 +11882,7 @@
       <c r="Q601" s="3"/>
       <c r="R601" s="3"/>
     </row>
-    <row r="602" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
@@ -11886,7 +11900,7 @@
       <c r="Q602" s="3"/>
       <c r="R602" s="3"/>
     </row>
-    <row r="603" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
@@ -11904,7 +11918,7 @@
       <c r="Q603" s="3"/>
       <c r="R603" s="3"/>
     </row>
-    <row r="604" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
@@ -11922,7 +11936,7 @@
       <c r="Q604" s="3"/>
       <c r="R604" s="3"/>
     </row>
-    <row r="605" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
@@ -11940,7 +11954,7 @@
       <c r="Q605" s="3"/>
       <c r="R605" s="3"/>
     </row>
-    <row r="606" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -11958,7 +11972,7 @@
       <c r="Q606" s="3"/>
       <c r="R606" s="3"/>
     </row>
-    <row r="607" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -11976,7 +11990,7 @@
       <c r="Q607" s="3"/>
       <c r="R607" s="3"/>
     </row>
-    <row r="608" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -11994,7 +12008,7 @@
       <c r="Q608" s="3"/>
       <c r="R608" s="3"/>
     </row>
-    <row r="609" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -12012,7 +12026,7 @@
       <c r="Q609" s="3"/>
       <c r="R609" s="3"/>
     </row>
-    <row r="610" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
@@ -12030,7 +12044,7 @@
       <c r="Q610" s="3"/>
       <c r="R610" s="3"/>
     </row>
-    <row r="611" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
@@ -12048,7 +12062,7 @@
       <c r="Q611" s="3"/>
       <c r="R611" s="3"/>
     </row>
-    <row r="612" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
@@ -12066,7 +12080,7 @@
       <c r="Q612" s="3"/>
       <c r="R612" s="3"/>
     </row>
-    <row r="613" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
@@ -12084,7 +12098,7 @@
       <c r="Q613" s="3"/>
       <c r="R613" s="3"/>
     </row>
-    <row r="614" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
@@ -12102,7 +12116,7 @@
       <c r="Q614" s="3"/>
       <c r="R614" s="3"/>
     </row>
-    <row r="615" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
@@ -12120,7 +12134,7 @@
       <c r="Q615" s="3"/>
       <c r="R615" s="3"/>
     </row>
-    <row r="616" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
@@ -12138,7 +12152,7 @@
       <c r="Q616" s="3"/>
       <c r="R616" s="3"/>
     </row>
-    <row r="617" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
@@ -12156,7 +12170,7 @@
       <c r="Q617" s="3"/>
       <c r="R617" s="3"/>
     </row>
-    <row r="618" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
@@ -12174,7 +12188,7 @@
       <c r="Q618" s="3"/>
       <c r="R618" s="3"/>
     </row>
-    <row r="619" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
@@ -12192,7 +12206,7 @@
       <c r="Q619" s="3"/>
       <c r="R619" s="3"/>
     </row>
-    <row r="620" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
@@ -12210,7 +12224,7 @@
       <c r="Q620" s="3"/>
       <c r="R620" s="3"/>
     </row>
-    <row r="621" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
@@ -12228,7 +12242,7 @@
       <c r="Q621" s="3"/>
       <c r="R621" s="3"/>
     </row>
-    <row r="622" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
@@ -12246,7 +12260,7 @@
       <c r="Q622" s="3"/>
       <c r="R622" s="3"/>
     </row>
-    <row r="623" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
@@ -12264,7 +12278,7 @@
       <c r="Q623" s="3"/>
       <c r="R623" s="3"/>
     </row>
-    <row r="624" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
@@ -12282,7 +12296,7 @@
       <c r="Q624" s="3"/>
       <c r="R624" s="3"/>
     </row>
-    <row r="625" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
@@ -12300,7 +12314,7 @@
       <c r="Q625" s="3"/>
       <c r="R625" s="3"/>
     </row>
-    <row r="626" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
@@ -12318,7 +12332,7 @@
       <c r="Q626" s="3"/>
       <c r="R626" s="3"/>
     </row>
-    <row r="627" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
@@ -12336,7 +12350,7 @@
       <c r="Q627" s="3"/>
       <c r="R627" s="3"/>
     </row>
-    <row r="628" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
@@ -12354,7 +12368,7 @@
       <c r="Q628" s="3"/>
       <c r="R628" s="3"/>
     </row>
-    <row r="629" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
@@ -12372,7 +12386,7 @@
       <c r="Q629" s="3"/>
       <c r="R629" s="3"/>
     </row>
-    <row r="630" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
@@ -12390,7 +12404,7 @@
       <c r="Q630" s="3"/>
       <c r="R630" s="3"/>
     </row>
-    <row r="631" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
@@ -12408,7 +12422,7 @@
       <c r="Q631" s="3"/>
       <c r="R631" s="3"/>
     </row>
-    <row r="632" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
@@ -12426,7 +12440,7 @@
       <c r="Q632" s="3"/>
       <c r="R632" s="3"/>
     </row>
-    <row r="633" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
@@ -12444,7 +12458,7 @@
       <c r="Q633" s="3"/>
       <c r="R633" s="3"/>
     </row>
-    <row r="634" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
@@ -12462,7 +12476,7 @@
       <c r="Q634" s="3"/>
       <c r="R634" s="3"/>
     </row>
-    <row r="635" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
@@ -12480,7 +12494,7 @@
       <c r="Q635" s="3"/>
       <c r="R635" s="3"/>
     </row>
-    <row r="636" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
@@ -12498,7 +12512,7 @@
       <c r="Q636" s="3"/>
       <c r="R636" s="3"/>
     </row>
-    <row r="637" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
@@ -12516,7 +12530,7 @@
       <c r="Q637" s="3"/>
       <c r="R637" s="3"/>
     </row>
-    <row r="638" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
@@ -12534,7 +12548,7 @@
       <c r="Q638" s="3"/>
       <c r="R638" s="3"/>
     </row>
-    <row r="639" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
@@ -12552,7 +12566,7 @@
       <c r="Q639" s="3"/>
       <c r="R639" s="3"/>
     </row>
-    <row r="640" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
@@ -12570,7 +12584,7 @@
       <c r="Q640" s="3"/>
       <c r="R640" s="3"/>
     </row>
-    <row r="641" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
@@ -12588,7 +12602,7 @@
       <c r="Q641" s="3"/>
       <c r="R641" s="3"/>
     </row>
-    <row r="642" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
@@ -12606,7 +12620,7 @@
       <c r="Q642" s="3"/>
       <c r="R642" s="3"/>
     </row>
-    <row r="643" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
@@ -12624,7 +12638,7 @@
       <c r="Q643" s="3"/>
       <c r="R643" s="3"/>
     </row>
-    <row r="644" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
@@ -12642,7 +12656,7 @@
       <c r="Q644" s="3"/>
       <c r="R644" s="3"/>
     </row>
-    <row r="645" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
@@ -12660,7 +12674,7 @@
       <c r="Q645" s="3"/>
       <c r="R645" s="3"/>
     </row>
-    <row r="646" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
@@ -12678,7 +12692,7 @@
       <c r="Q646" s="3"/>
       <c r="R646" s="3"/>
     </row>
-    <row r="647" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
@@ -12696,7 +12710,7 @@
       <c r="Q647" s="3"/>
       <c r="R647" s="3"/>
     </row>
-    <row r="648" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
@@ -12714,7 +12728,7 @@
       <c r="Q648" s="3"/>
       <c r="R648" s="3"/>
     </row>
-    <row r="649" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
@@ -12732,7 +12746,7 @@
       <c r="Q649" s="3"/>
       <c r="R649" s="3"/>
     </row>
-    <row r="650" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
@@ -12750,7 +12764,7 @@
       <c r="Q650" s="3"/>
       <c r="R650" s="3"/>
     </row>
-    <row r="651" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
@@ -12768,7 +12782,7 @@
       <c r="Q651" s="3"/>
       <c r="R651" s="3"/>
     </row>
-    <row r="652" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
@@ -12786,7 +12800,7 @@
       <c r="Q652" s="3"/>
       <c r="R652" s="3"/>
     </row>
-    <row r="653" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
@@ -12804,7 +12818,7 @@
       <c r="Q653" s="3"/>
       <c r="R653" s="3"/>
     </row>
-    <row r="654" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
@@ -12822,7 +12836,7 @@
       <c r="Q654" s="3"/>
       <c r="R654" s="3"/>
     </row>
-    <row r="655" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
@@ -12840,7 +12854,7 @@
       <c r="Q655" s="3"/>
       <c r="R655" s="3"/>
     </row>
-    <row r="656" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
@@ -12858,7 +12872,7 @@
       <c r="Q656" s="3"/>
       <c r="R656" s="3"/>
     </row>
-    <row r="657" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
@@ -12876,7 +12890,7 @@
       <c r="Q657" s="3"/>
       <c r="R657" s="3"/>
     </row>
-    <row r="658" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
@@ -12894,7 +12908,7 @@
       <c r="Q658" s="3"/>
       <c r="R658" s="3"/>
     </row>
-    <row r="659" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
@@ -12912,7 +12926,7 @@
       <c r="Q659" s="3"/>
       <c r="R659" s="3"/>
     </row>
-    <row r="660" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
@@ -12930,7 +12944,7 @@
       <c r="Q660" s="3"/>
       <c r="R660" s="3"/>
     </row>
-    <row r="661" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
@@ -12948,7 +12962,7 @@
       <c r="Q661" s="3"/>
       <c r="R661" s="3"/>
     </row>
-    <row r="662" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
